--- a/data/trans_dic/P1418-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1139800927459036</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.162850157023203</v>
+        <v>0.1628501570232029</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09472973479830273</v>
+        <v>0.09286992819089045</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06388390450615682</v>
+        <v>0.06368369739589612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04758378426981664</v>
+        <v>0.04648458424894662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09461653733068409</v>
+        <v>0.09532720178770195</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1590049960249725</v>
+        <v>0.1572962906575875</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1666736753267311</v>
+        <v>0.1650210397155636</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1286863453266861</v>
+        <v>0.1290079009139458</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1765012574746259</v>
+        <v>0.1746191223788991</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1355171360814706</v>
+        <v>0.136501651926895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.126967400306406</v>
+        <v>0.1246223651832606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09788357261462942</v>
+        <v>0.09884526455973376</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1466394185541625</v>
+        <v>0.1468366887018456</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1326533817442505</v>
+        <v>0.1313819232855111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09847070583818734</v>
+        <v>0.1000809715852862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08245557670327375</v>
+        <v>0.08060919827238822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1431005123712442</v>
+        <v>0.1414694556406318</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2009087486810999</v>
+        <v>0.2023051064334408</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2084269019325429</v>
+        <v>0.2070938207428983</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.177067179177725</v>
+        <v>0.1773552069491579</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2170358211061891</v>
+        <v>0.2187172399299398</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1658469353363745</v>
+        <v>0.1653759253142604</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1561763346506359</v>
+        <v>0.155557063017551</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1296207537504595</v>
+        <v>0.1320445694200314</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1791438104332934</v>
+        <v>0.1796626968657654</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02903655089738773</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04602171697641314</v>
+        <v>0.04602171697641313</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02232095101258629</v>
+        <v>0.0220856160443194</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007477841297795572</v>
+        <v>0.007699106773449824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01009208705992294</v>
+        <v>0.009873407839684123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02469504771720368</v>
+        <v>0.02433009476390221</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04423875809290576</v>
+        <v>0.04417367649059276</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04017143609093279</v>
+        <v>0.04009779419241916</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03530135810796052</v>
+        <v>0.03560783712106425</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05252099165591329</v>
+        <v>0.05329685151697781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0346184866021429</v>
+        <v>0.0344764569932822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02449924396038876</v>
+        <v>0.02490962535860085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02377970686830008</v>
+        <v>0.02382598852248865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04119371604878781</v>
+        <v>0.04109213845068222</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.038305713431326</v>
+        <v>0.03838782303928887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01888054630273874</v>
+        <v>0.01913965878369106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02159441887125152</v>
+        <v>0.02061698542018968</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04027553686027387</v>
+        <v>0.0391012168932409</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06771655195108174</v>
+        <v>0.06911580567807933</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06274728588269973</v>
+        <v>0.06243641345851818</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05447382101988172</v>
+        <v>0.05415740621633145</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0695132481384606</v>
+        <v>0.06968064309188451</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04826558957468259</v>
+        <v>0.04905531237904773</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03660976583269448</v>
+        <v>0.03652107237052965</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03484049454786313</v>
+        <v>0.03449220853152612</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05159118181530797</v>
+        <v>0.05181766928984465</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01434336349587879</v>
+        <v>0.01428621527141751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002156214598600196</v>
+        <v>0.003867437756730035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002038363660964115</v>
+        <v>0.002040962962747925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009118705051891437</v>
+        <v>0.0089584642049792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0254394488896051</v>
+        <v>0.02475391419725623</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.009323105129570483</v>
+        <v>0.01056401103953273</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0127434097751236</v>
+        <v>0.01401994531001912</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03480967047057946</v>
+        <v>0.03504725956539341</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02200961571874419</v>
+        <v>0.02231604619312668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007982782614394213</v>
+        <v>0.008555833252328737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009268938736012415</v>
+        <v>0.00964878034479676</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02461653682968505</v>
+        <v>0.0245674798812678</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04306166218804211</v>
+        <v>0.04199341938982258</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0276213937043537</v>
+        <v>0.02900361806859829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01800552453295523</v>
+        <v>0.01847525976580535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0277197276204876</v>
+        <v>0.02747306770944986</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06176936326794635</v>
+        <v>0.06185106267567342</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03759633891012112</v>
+        <v>0.03930022979007714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04159587886921162</v>
+        <v>0.04298668147240023</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06278250231230978</v>
+        <v>0.06347585933101069</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04597240847929829</v>
+        <v>0.04574647918015321</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02500134774354226</v>
+        <v>0.02543828030352025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02564084234936378</v>
+        <v>0.02566471126980997</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04216473850735093</v>
+        <v>0.04061246791888446</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02419217808678976</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04211403692517501</v>
+        <v>0.042114036925175</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1015484120081016</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02455048721753322</v>
+        <v>0.02577531130767326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01938816835087205</v>
+        <v>0.01930873025615195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03602897538761678</v>
+        <v>0.03590752114198367</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0874394961298862</v>
+        <v>0.08784910448495642</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06243515975578807</v>
+        <v>0.06336333566779283</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08085692188736014</v>
+        <v>0.08109241406637906</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05878863207634506</v>
+        <v>0.05923667903521097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04295091461118837</v>
+        <v>0.04324772431805281</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06064908663373531</v>
+        <v>0.060974040452916</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03786069792630273</v>
+        <v>0.03774315893885241</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03014244912511843</v>
+        <v>0.03034329619718395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04890520948386824</v>
+        <v>0.04893786227203887</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1079863872653311</v>
+        <v>0.1093681538089036</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08099496771737486</v>
+        <v>0.08261084087019477</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0956056894017533</v>
+        <v>0.09565821117837187</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07101783125849417</v>
+        <v>0.07088892589399989</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05364268050132712</v>
+        <v>0.05409842397932343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07069222621250634</v>
+        <v>0.07075957491164336</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>97735</v>
+        <v>95816</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>62264</v>
+        <v>62069</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35895</v>
+        <v>35066</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54513</v>
+        <v>54922</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>209110</v>
+        <v>206862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>222976</v>
+        <v>220765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>127999</v>
+        <v>128319</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>144723</v>
+        <v>143179</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>318036</v>
+        <v>320347</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>293604</v>
+        <v>288182</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>171199</v>
+        <v>172881</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>204723</v>
+        <v>204998</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>136862</v>
+        <v>135550</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95974</v>
+        <v>97543</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>62200</v>
+        <v>60807</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82446</v>
+        <v>81507</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>264218</v>
+        <v>266054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>278833</v>
+        <v>277049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>176122</v>
+        <v>176408</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>177959</v>
+        <v>179338</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>389215</v>
+        <v>388110</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>361148</v>
+        <v>359716</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>226708</v>
+        <v>230947</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>250102</v>
+        <v>250827</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37799</v>
+        <v>37400</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14686</v>
+        <v>15121</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20955</v>
+        <v>20501</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55035</v>
+        <v>54221</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70237</v>
+        <v>70133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>70442</v>
+        <v>70313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>70190</v>
+        <v>70799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>113798</v>
+        <v>115479</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>113586</v>
+        <v>113120</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>91076</v>
+        <v>92602</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>96657</v>
+        <v>96845</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>181058</v>
+        <v>180612</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64867</v>
+        <v>65006</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37081</v>
+        <v>37589</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44838</v>
+        <v>42809</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>89757</v>
+        <v>87140</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>107512</v>
+        <v>109733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>110030</v>
+        <v>109485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>108310</v>
+        <v>107681</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>150616</v>
+        <v>150979</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>158364</v>
+        <v>160955</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>136097</v>
+        <v>135767</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>141616</v>
+        <v>140200</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>226758</v>
+        <v>227754</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7909</v>
+        <v>7878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1038</v>
+        <v>1861</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6479</v>
+        <v>6365</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12120</v>
+        <v>11793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4276</v>
+        <v>4845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6998</v>
+        <v>7699</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25507</v>
+        <v>25682</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22622</v>
+        <v>22937</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7502</v>
+        <v>8041</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10159</v>
+        <v>10575</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35528</v>
+        <v>35457</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23745</v>
+        <v>23156</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13291</v>
+        <v>13956</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9847</v>
+        <v>10104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19695</v>
+        <v>19519</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29428</v>
+        <v>29467</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17243</v>
+        <v>18024</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22842</v>
+        <v>23606</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46005</v>
+        <v>46513</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>47251</v>
+        <v>47019</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23497</v>
+        <v>23907</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28103</v>
+        <v>28129</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60855</v>
+        <v>58614</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83957</v>
+        <v>88146</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>65486</v>
+        <v>65218</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>126649</v>
+        <v>126222</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>310408</v>
+        <v>311862</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>220527</v>
+        <v>223806</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>300743</v>
+        <v>301619</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>409742</v>
+        <v>412865</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>296779</v>
+        <v>298830</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>438774</v>
+        <v>441125</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>129475</v>
+        <v>129073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>101810</v>
+        <v>102488</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>171912</v>
+        <v>172026</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>383349</v>
+        <v>388254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>286082</v>
+        <v>291790</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>355600</v>
+        <v>355795</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>494977</v>
+        <v>494078</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>370656</v>
+        <v>373805</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>511433</v>
+        <v>511920</v>
       </c>
     </row>
     <row r="20">
